--- a/biology/Botanique/Colpothrinax/Colpothrinax.xlsx
+++ b/biology/Botanique/Colpothrinax/Colpothrinax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colpothrinax est un genre de la famille des Arecaceae (Palmiers).
 </t>
@@ -511,11 +523,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Coryphoideae
 Tribu des Trachycarpeae
-Ce genre  partage cette tribu (des "non encore placés") avec six autres genres :  Acoelorrhaphe,  Brahea,   Copernicia,  Pritchardia,  Serenoa,  Washingtonia [1].
+Ce genre  partage cette tribu (des "non encore placés") avec six autres genres :  Acoelorrhaphe,  Brahea,   Copernicia,  Pritchardia,  Serenoa,  Washingtonia .
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Plants of the World online (POWO)                (7 fevrier 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Plants of the World online (POWO)                (7 fevrier 2021) :
 Colpothrinax aphanopetala   	R.Evans
 Colpothrinax cookii 		    Read
 Colpothrinax wrightii 		Schaedtler</t>
@@ -577,12 +593,14 @@
           <t>Habitat, description et usage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Leur habitat naturel se trouve en Amérique centrale et dans les Caraïbes.
 Colpothrinax aphanopetala se rencontre dans le sud-ouest de l'Amérique Centrale, du sud-est du Nicaragua au Panama.
 Colpothrinax cookii pousse quant à lui dans le nord-est de l'Amérique centrale, du Belize au Honduras. C'est un palmier de taille moyenne au stipe solitaire et au tronc velu. Les feuilles sont palmées. Il pousse dans des forêts tropicales humides.
-La troisième espèce, Colpothrinax wrightii, est endémique au Sud-ouest de l'île de Cuba. Elle pousse dans les savanes. L'espèce possède aussi des feuilles palmées et un tronc en forme de bouteille. L'arbre est utilisé localement pour ses fruits, son bois et ses feuilles. Mais il se reproduit lentement, ce qui le rend vulnérable[3].</t>
+La troisième espèce, Colpothrinax wrightii, est endémique au Sud-ouest de l'île de Cuba. Elle pousse dans les savanes. L'espèce possède aussi des feuilles palmées et un tronc en forme de bouteille. L'arbre est utilisé localement pour ses fruits, son bois et ses feuilles. Mais il se reproduit lentement, ce qui le rend vulnérable.</t>
         </is>
       </c>
     </row>
